--- a/test/apiTestCase.xlsx
+++ b/test/apiTestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="126">
   <si>
     <t>接口编号</t>
   </si>
@@ -396,7 +396,7 @@
 "$.data.is_show_button":1,
 "$.data.tickets":null,"$.data.button_status_text":"",
 "$.data.rebate_info":"评论可返10.00元"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.is_virtual":1,"$.data.status":1,
@@ -404,55 +404,43 @@
 "$.data.is_show_button":1,
 "$.data.ticket":null,"$.data.button_status_text":"",
 "$.data.rebate_info":"下单最高可返10.00元"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.data.status":1,"$.data.join_status":1,"$.data.is_show_button":1,"$.data.button_status_text":"报名未开始,敬请期待"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.status":1,"$.data.join_status":1,"$.data.is_show_button":1,"$.data.button_status_text":"活动已结束"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.status":-4,"$.data.join_status":1,"$.data.is_show_button":1,"$.data.button_status_text":"活动已下架"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.status":1,"$.data.join_status":2,"$.data.is_show_button":1,"$.data.button_status_text":""}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.status":-4,"$.data.join_status":2,"$.data.is_show_button":1,"$.data.button_status_text":"活动已下架"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.is_virtual":1,"$.data.status":1,"$.data.join_status":2,"$.data.is_show_button":1,"$.data.tickets":null,"$.data.button_status_text":""}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>处理不了检查数据中的“，”的unicode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.status":1,"$.data.join_status":2,"$.data.is_show_button":1,"$.data.button_status_text":"抢购已结束"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.data.status":1,"$.data.join_status":2,"$.data.is_show_button":1,"$.data.button_status_text":"抢购未开始,敬请期待"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.status":1,"$.data.join_status":2,"$.data.is_show_button":1,"$.data.button_status_text":"活动已结束"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.status":1,"$.data.join_status":2,"$.data.is_show_button":1,"$.data.button_status_text":"已抢完"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.is_virtual":1,"$.data.status":1,
@@ -460,11 +448,11 @@
 "$.data.is_show_button":1,
 "$.data.ticket":null,"$.data.button_status_text":"",
 "$.data.rebate_info":"评论最高可返10.00元"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>YES</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -484,7 +472,7 @@
       </rPr>
       <t>sku_list[*].comment_rebate_price":"下单返￥10"}</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -514,7 +502,7 @@
       </rPr>
       <t>sku_list[*].comment_rebate_price":"评价返￥10"}</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -534,7 +522,7 @@
       </rPr>
       <t>.comment_rebate_price":"评价返￥10"}</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"$.data.is_virtual":1,"$.data.status":1,
@@ -542,14 +530,22 @@
 "$.data.is_show_button":1,
 "$.data.tickets":null,"$.data.button_status_text":"",
 "$.data.ticket.comment_rebate_price":"下单返￥10"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.data.status":1,"$.data.join_status":1,"$.data.is_show_button":1,"$.data.button_status_text":"报名未开始，敬请期待"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.data.status":1,"$.data.join_status":2,"$.data.is_show_button":1,"$.data.button_status_text":"抢购未开始，敬请期待"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,13 +572,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -648,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -716,9 +705,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,368 +1055,371 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:L7"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="30"/>
-    <col min="3" max="3" width="15.125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="9" style="30"/>
-    <col min="5" max="5" width="13" style="30" customWidth="1"/>
-    <col min="6" max="7" width="9" style="30"/>
-    <col min="8" max="8" width="26" style="30" customWidth="1"/>
-    <col min="9" max="9" width="28.875" style="30" customWidth="1"/>
-    <col min="10" max="10" width="40.125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="21" style="30" customWidth="1"/>
-    <col min="13" max="13" width="19.125" style="30" customWidth="1"/>
-    <col min="14" max="14" width="9" style="30"/>
+    <col min="1" max="2" width="9" style="29"/>
+    <col min="3" max="3" width="15.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="9" style="29"/>
+    <col min="5" max="5" width="13" style="29" customWidth="1"/>
+    <col min="6" max="7" width="9" style="29"/>
+    <col min="8" max="8" width="26" style="29" customWidth="1"/>
+    <col min="9" max="9" width="28.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="40.125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="21" style="29" customWidth="1"/>
+    <col min="13" max="13" width="19.125" style="29" customWidth="1"/>
+    <col min="14" max="14" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="32" t="s">
+      <c r="H2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="32" t="s">
+      <c r="H3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="32" t="s">
+      <c r="H5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="32" t="s">
+      <c r="H6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="32" t="s">
+      <c r="H7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="10:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J17" s="32"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="10:10" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5 N2:N4 N6:N7">
       <formula1>"YES,NO"</formula1>
@@ -1457,8 +1446,8 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1555,7 +1544,7 @@
         <v>37</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1595,7 +1584,7 @@
         <v>37</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="96.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1606,7 +1595,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>40</v>
@@ -1631,49 +1620,49 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="40" t="s">
+      <c r="F5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" s="43" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="42" t="s">
         <v>37</v>
       </c>
       <c r="N5" s="14" t="s">
@@ -1709,13 +1698,13 @@
         <v>54</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="104.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1747,13 +1736,13 @@
         <v>56</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="134.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1785,13 +1774,13 @@
         <v>58</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1823,13 +1812,13 @@
         <v>60</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.15">
@@ -1861,49 +1850,49 @@
         <v>62</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="23" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44">
+      <c r="A11" s="43">
         <v>10</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="45" t="s">
+      <c r="F11" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="46" t="s">
+      <c r="H11" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46" t="s">
+      <c r="K11" s="44"/>
+      <c r="L11" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="M11" s="42" t="s">
         <v>37</v>
       </c>
       <c r="N11" s="14" t="s">
@@ -1939,13 +1928,13 @@
         <v>67</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -1977,13 +1966,13 @@
         <v>69</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -2015,13 +2004,13 @@
         <v>71</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="146.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2059,7 +2048,7 @@
         <v>37</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="198" customHeight="1" x14ac:dyDescent="0.15">
@@ -2091,13 +2080,13 @@
         <v>76</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="198" customHeight="1" x14ac:dyDescent="0.15">
@@ -2138,7 +2127,7 @@
         <v>37</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="195.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2170,13 +2159,13 @@
         <v>81</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="195.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2217,7 +2206,7 @@
         <v>37</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="189" customHeight="1" x14ac:dyDescent="0.15">
@@ -2249,13 +2238,13 @@
         <v>84</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M20" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2295,8 +2284,8 @@
       <c r="M21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="29" t="s">
-        <v>120</v>
+      <c r="N21" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2328,13 +2317,13 @@
         <v>86</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="29" t="s">
-        <v>120</v>
+      <c r="N22" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.15">
@@ -2369,13 +2358,13 @@
         <v>86</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="29" t="s">
-        <v>120</v>
+      <c r="N23" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2397,7 +2386,7 @@
       <c r="B27" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M21">
       <formula1>"exact,jsonpath,jsonpathno"</formula1>
@@ -2800,7 +2789,7 @@
       <c r="B24" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6">
       <formula1>"YES,NO"</formula1>
@@ -3121,7 +3110,7 @@
       <c r="B24" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4">
       <formula1>"YES,NO"</formula1>
@@ -3147,7 +3136,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -3188,7 +3177,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2">
       <formula1>"YES,NO"</formula1>

--- a/test/apiTestCase.xlsx
+++ b/test/apiTestCase.xlsx
@@ -171,9 +171,6 @@
   <si>
     <t>可报名非商品
 报名未开始,敬请期待</t>
-  </si>
-  <si>
-    <t>id=13488</t>
   </si>
   <si>
     <t>可报名非售卖商品
@@ -538,6 +535,10 @@
   </si>
   <si>
     <t>{"$.data.status":1,"$.data.join_status":2,"$.data.is_show_button":1,"$.data.button_status_text":"抢购未开始，敬请期待"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=13488</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1447,7 +1448,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1595,7 +1596,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>40</v>
@@ -1616,17 +1617,17 @@
         <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="81" x14ac:dyDescent="0.15">
@@ -1641,7 +1642,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>18</v>
@@ -1656,11 +1657,11 @@
         <v>43</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M5" s="42" t="s">
         <v>37</v>
@@ -1680,7 +1681,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>18</v>
@@ -1695,10 +1696,10 @@
         <v>43</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>37</v>
@@ -1718,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>18</v>
@@ -1733,10 +1734,10 @@
         <v>43</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>37</v>
@@ -1756,7 +1757,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>18</v>
@@ -1771,10 +1772,10 @@
         <v>43</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>37</v>
@@ -1794,7 +1795,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>18</v>
@@ -1809,10 +1810,10 @@
         <v>43</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>37</v>
@@ -1832,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>18</v>
@@ -1847,10 +1848,10 @@
         <v>43</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>37</v>
@@ -1871,7 +1872,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>18</v>
@@ -1886,11 +1887,11 @@
         <v>43</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="44"/>
       <c r="L11" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" s="42" t="s">
         <v>37</v>
@@ -1910,7 +1911,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>18</v>
@@ -1925,10 +1926,10 @@
         <v>43</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>37</v>
@@ -1948,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>18</v>
@@ -1963,10 +1964,10 @@
         <v>43</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>37</v>
@@ -1986,7 +1987,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>18</v>
@@ -2001,10 +2002,10 @@
         <v>43</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>37</v>
@@ -2024,7 +2025,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>18</v>
@@ -2039,10 +2040,10 @@
         <v>43</v>
       </c>
       <c r="J15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>37</v>
@@ -2062,7 +2063,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>18</v>
@@ -2077,10 +2078,10 @@
         <v>43</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>37</v>
@@ -2097,13 +2098,13 @@
         <v>39</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>18</v>
@@ -2118,10 +2119,10 @@
         <v>43</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>37</v>
@@ -2141,7 +2142,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>18</v>
@@ -2156,10 +2157,10 @@
         <v>43</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>37</v>
@@ -2176,13 +2177,13 @@
         <v>39</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>18</v>
@@ -2197,10 +2198,10 @@
         <v>43</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M19" s="15" t="s">
         <v>37</v>
@@ -2220,7 +2221,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>18</v>
@@ -2235,10 +2236,10 @@
         <v>43</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M20" s="15" t="s">
         <v>37</v>
@@ -2255,13 +2256,13 @@
         <v>39</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>18</v>
@@ -2276,10 +2277,10 @@
         <v>43</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>37</v>
@@ -2299,7 +2300,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>18</v>
@@ -2314,10 +2315,10 @@
         <v>43</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>37</v>
@@ -2334,13 +2335,13 @@
         <v>39</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>18</v>
@@ -2355,10 +2356,10 @@
         <v>43</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>37</v>
@@ -2530,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>26</v>
@@ -2572,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>28</v>
@@ -2614,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>30</v>
@@ -2656,7 +2657,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>34</v>
@@ -2881,35 +2882,35 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>37</v>
@@ -2923,11 +2924,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
@@ -2940,14 +2941,14 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>37</v>
@@ -2961,11 +2962,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
@@ -2978,14 +2979,14 @@
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>37</v>
@@ -3156,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3167,7 +3168,7 @@
     </row>
     <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
